--- a/gams/python/results/Q1/res_sum_Q_outrI_RA.xlsx
+++ b/gams/python/results/Q1/res_sum_Q_outrI_RA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\CloudDrive\Uni\WS24\Research Project\gams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9DC6B62-5B65-4987-B037-4211EC104693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52CC308-D67D-43E8-9C38-3150C3F0C9BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10665" yWindow="2520" windowWidth="7500" windowHeight="6000" xr2:uid="{0ACC9C3B-D0BF-4220-B6C9-AD7B1CF143B1}"/>
+    <workbookView xWindow="4180" yWindow="4180" windowWidth="28800" windowHeight="15460" xr2:uid="{0ACC9C3B-D0BF-4220-B6C9-AD7B1CF143B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1024,7 +1024,7 @@
         <v>1.468</v>
       </c>
       <c r="K2">
-        <v>0.73799999999999999</v>
+        <v>0.71399999999999997</v>
       </c>
       <c r="L2">
         <v>2.2550000000000003</v>
@@ -1066,13 +1066,13 @@
         <v>1.6919999999999999</v>
       </c>
       <c r="Y2">
-        <v>1.498</v>
+        <v>1.4980000000000002</v>
       </c>
       <c r="Z2">
         <v>1.8619999999999999</v>
       </c>
       <c r="AA2">
-        <v>2.1080000000000001</v>
+        <v>2.1080000000000005</v>
       </c>
       <c r="AB2">
         <v>1.278</v>
@@ -1084,10 +1084,10 @@
         <v>1.657</v>
       </c>
       <c r="AE2">
-        <v>1.2810000000000001</v>
+        <v>1.2809999999999999</v>
       </c>
       <c r="AF2">
-        <v>1.1589999999999998</v>
+        <v>1.159</v>
       </c>
       <c r="AG2">
         <v>1.0120000000000002</v>
@@ -1135,7 +1135,7 @@
         <v>2.3570000000000002</v>
       </c>
       <c r="AV2">
-        <v>2.8939999999999997</v>
+        <v>2.8940000000000001</v>
       </c>
       <c r="AW2">
         <v>2.5859999999999999</v>
@@ -1222,7 +1222,7 @@
         <v>2.1</v>
       </c>
       <c r="BY2">
-        <v>1.3690000000000002</v>
+        <v>1.3689999999999998</v>
       </c>
       <c r="BZ2">
         <v>1.294</v>
@@ -1252,7 +1252,7 @@
         <v>1.6850000000000001</v>
       </c>
       <c r="CI2">
-        <v>0.88100000000000001</v>
+        <v>0.88500000000000001</v>
       </c>
       <c r="CJ2">
         <v>2.0390000000000001</v>
@@ -1276,7 +1276,7 @@
         <v>1.698</v>
       </c>
       <c r="CQ2">
-        <v>1.2970000000000002</v>
+        <v>1.2969999999999999</v>
       </c>
       <c r="CR2">
         <v>2.5190000000000001</v>
